--- a/biology/Zoologie/Agapanthia_cardui/Agapanthia_cardui.xlsx
+++ b/biology/Zoologie/Agapanthia_cardui/Agapanthia_cardui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapanthia cardui,  l'agapanthe du chardon, est une espèce de coléoptères de la famille des Cerambycidae, de la sous-famille des Lamiinae, de la tribu des Agapanthiini, du genre Agapanthia, et du sous-genre Agapanthia (Agapanthia). C'est l'espèce type du genre. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps noir avec un lustre bronzé, long de 7 à 13 mm. Les antennes finement pubescentes. Une bande pubescente le long de la suture. Le pronotum avec trois bandes claires longitudinales.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adultes très communs d'avril à juillet, sur les tiges des chardons ou des marguerites.  
 La larve se développe dans les tiges de chardons (Asteraceae).
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale et méridionale, Caucase, Proche et moyen-Orient, Afrique du Nord. 
 Très commun en France méridionale et centrale, plus rare au Nord. 
@@ -606,11 +624,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Agapanthia cardui a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Cerambyx cardui.
-Synonymie
-Cerambyx cardui (Linnaeus, 1767) protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agapanthia cardui a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Cerambyx cardui.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agapanthia_cardui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agapanthia_cardui</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cerambyx cardui (Linnaeus, 1767) protonyme
 Saperda cardui (Linnaeus, Fabricius, 1787)
 Saperda coerulescens  (Petagna, Gistel, 1787)
 Saperda annulata (Fabricius, Gistel, 1792)
@@ -618,9 +673,43 @@
 Agapanthia cardui subacutalis (Chevrolat, 1882)
 Eucrius cardui  (Linnaeus, Gistel, 1856)
 Agapanthia cardui grossa (Pic, 1891)
-Agapanthia cardui pannonica (Kratochvíl Gutowski, 1992)
-Taxinomie
-Liste des sous-espèces
+Agapanthia cardui pannonica (Kratochvíl Gutowski, 1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agapanthia_cardui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agapanthia_cardui</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Agapanthia cardui var. consobrina Chevrolat, 1840
 Agapanthia cardui var. marginalis (Mulsant), 1839
 Agapanthia cardui var. nigroaenea (Mulsant), 1839
